--- a/public/ShippmentA.xlsx
+++ b/public/ShippmentA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odanu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon1\www\Generate-Shipping-Mark\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A583015-F169-4E23-9AB5-7BB7165A3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FA4D3-1E4D-448B-9BD0-8FEF98E1986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C3E87FD6-C432-4054-A752-8008931CF348}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{C3E87FD6-C432-4054-A752-8008931CF348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ATRIBUT</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>CL11-124</t>
+  </si>
+  <si>
+    <t>NO SO</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CFF6D-0EB2-45EB-BDB8-5D86839D3138}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +467,7 @@
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +483,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -494,8 +503,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -511,8 +523,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -527,6 +542,9 @@
       </c>
       <c r="E4" t="s">
         <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
